--- a/medicine/Maladies infectieuses/Pandémie_de_Covid-19_au_Bhoutan/Pandémie_de_Covid-19_au_Bhoutan.xlsx
+++ b/medicine/Maladies infectieuses/Pandémie_de_Covid-19_au_Bhoutan/Pandémie_de_Covid-19_au_Bhoutan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Bhoutan</t>
+          <t>Pandémie_de_Covid-19_au_Bhoutan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé.
 La pandémie de Covid-19 au Bhoutan démarre officiellement le 6 mars 2020. À la date du 29 octobre 2022, le bilan est de 21 morts.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Bhoutan</t>
+          <t>Pandémie_de_Covid-19_au_Bhoutan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier cas de Covid-19 au Bhoutan est signalé le 6 mars 2020. Il s'agit d'un Américain de 76 ans qui s'était rendu dans le pays via l'Inde. Environ 90 personnes ayant été en contact direct avec lui, ainsi que sa compagne de 59 ans, son chauffeur et son guide ont été rapidement retrouvés et mis en quarantaine[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier cas de Covid-19 au Bhoutan est signalé le 6 mars 2020. Il s'agit d'un Américain de 76 ans qui s'était rendu dans le pays via l'Inde. Environ 90 personnes ayant été en contact direct avec lui, ainsi que sa compagne de 59 ans, son chauffeur et son guide ont été rapidement retrouvés et mis en quarantaine.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Bhoutan</t>
+          <t>Pandémie_de_Covid-19_au_Bhoutan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
